--- a/static/2025-07-31 FINAL_TEMPLATE.xlsx
+++ b/static/2025-07-31 FINAL_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{AE227527-E113-49E8-AB71-9AD2AD51B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91FFA221-F984-4094-A4BA-D29F3854C312}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{AE227527-E113-49E8-AB71-9AD2AD51B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60B28BE5-8917-47C5-84A8-7DE3BDDF45FD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
   </bookViews>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="1090">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -3992,13 +3992,19 @@
     <t>30 PDF - 30 PROD</t>
   </si>
   <si>
-    <t>31 PDF - 53 PROD</t>
-  </si>
-  <si>
     <t>25 PDF - 26 PROD</t>
   </si>
   <si>
     <t>34 PDF - 67 PROD</t>
+  </si>
+  <si>
+    <t>COST PER PRODUCT</t>
+  </si>
+  <si>
+    <t>COST PER PRODUCT x 1.3</t>
+  </si>
+  <si>
+    <t>31 PDF - 52 PROD</t>
   </si>
 </sst>
 </file>
@@ -4479,7 +4485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4854,6 +4860,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -17635,7 +17647,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17678,15 +17690,15 @@
       </c>
       <c r="G3" s="126"/>
       <c r="H3" s="125" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="I3" s="126"/>
       <c r="J3" s="125" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="125" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="M3" s="126"/>
     </row>
@@ -17731,7 +17743,9 @@
       <c r="H5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="I5" s="127"/>
+      <c r="I5" s="127">
+        <v>0.31</v>
+      </c>
       <c r="J5" s="113" t="s">
         <v>1054</v>
       </c>
@@ -17749,12 +17763,14 @@
         <v>1064</v>
       </c>
       <c r="G6" s="128">
-        <v>0.28699999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="H6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="I6" s="128"/>
+      <c r="I6" s="128">
+        <v>1.0063</v>
+      </c>
       <c r="J6" s="102" t="s">
         <v>1064</v>
       </c>
@@ -17777,7 +17793,9 @@
       <c r="H7" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="129">
+        <v>3.86</v>
+      </c>
       <c r="J7" s="105" t="s">
         <v>1068</v>
       </c>
@@ -17796,80 +17814,62 @@
       </c>
       <c r="G8" s="127">
         <f>SUM(G5:G7)</f>
-        <v>2.867</v>
+        <v>3.29</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>1060</v>
       </c>
       <c r="I8" s="127">
         <f>SUM(I5:I7)</f>
-        <v>0</v>
+        <v>5.1762999999999995</v>
       </c>
       <c r="J8" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="K8" s="127">
-        <f>SUM(K5:K7)</f>
-        <v>0</v>
-      </c>
+      <c r="K8" s="127"/>
       <c r="L8" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="M8" s="127">
-        <f>SUM(M5:M7)</f>
-        <v>0</v>
-      </c>
+      <c r="M8" s="127"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="109" t="s">
-        <v>1061</v>
+      <c r="E9" s="149" t="s">
+        <v>1087</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>1060</v>
       </c>
       <c r="G9" s="128">
-        <f>G8*1.3</f>
-        <v>3.7271000000000001</v>
-      </c>
-      <c r="H9" s="110" t="s">
-        <v>1060</v>
-      </c>
+        <f>G8/30</f>
+        <v>0.10966666666666666</v>
+      </c>
+      <c r="H9" s="110"/>
       <c r="I9" s="128">
-        <f>I8*1.3</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="110" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K9" s="128">
-        <f>K8*1.3</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="110" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M9" s="128">
-        <f>M8*1.3</f>
-        <v>0</v>
-      </c>
+        <f>I8/52</f>
+        <v>9.954423076923076E-2</v>
+      </c>
+      <c r="J9" s="110"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="128"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E10" s="118" t="s">
-        <v>1062</v>
+        <v>1088</v>
       </c>
       <c r="F10" s="119" t="s">
         <v>1060</v>
       </c>
       <c r="G10" s="130">
-        <f>G9/30</f>
-        <v>0.12423666666666668</v>
+        <f>G9*1.3</f>
+        <v>0.14256666666666667</v>
       </c>
       <c r="H10" s="119" t="s">
         <v>1060</v>
       </c>
       <c r="I10" s="130">
-        <f>I9/53</f>
-        <v>0</v>
+        <f>I9*1.3</f>
+        <v>0.12940749999999998</v>
       </c>
       <c r="J10" s="119" t="s">
         <v>1060</v>
@@ -17885,10 +17885,12 @@
         <v>1069</v>
       </c>
       <c r="F12" s="139">
-        <v>10850000</v>
+        <v>11420000</v>
       </c>
       <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
+      <c r="H12" s="148">
+        <v>12790000</v>
+      </c>
       <c r="I12" s="135"/>
       <c r="J12" s="135"/>
       <c r="K12" s="135"/>
@@ -17900,10 +17902,12 @@
         <v>1070</v>
       </c>
       <c r="F13" s="140">
-        <v>11420000</v>
+        <v>12790000</v>
       </c>
       <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
+      <c r="H13" s="136">
+        <v>14980000</v>
+      </c>
       <c r="I13" s="136"/>
       <c r="J13" s="136"/>
       <c r="K13" s="136"/>
@@ -17916,12 +17920,12 @@
       </c>
       <c r="F14" s="141">
         <f>F13-F12</f>
-        <v>570000</v>
+        <v>1370000</v>
       </c>
       <c r="G14" s="132"/>
       <c r="H14" s="141">
         <f>H13-H12</f>
-        <v>0</v>
+        <v>2190000</v>
       </c>
       <c r="I14" s="132"/>
       <c r="J14" s="137"/>
@@ -17934,11 +17938,13 @@
         <v>1072</v>
       </c>
       <c r="F15" s="139">
-        <v>578890</v>
+        <v>615980</v>
       </c>
       <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
+      <c r="H15" s="140">
+        <v>716530</v>
+      </c>
+      <c r="I15" s="136"/>
       <c r="J15" s="135"/>
       <c r="K15" s="135"/>
       <c r="L15" s="135"/>
@@ -17949,10 +17955,12 @@
         <v>1073</v>
       </c>
       <c r="F16" s="140">
-        <v>615980</v>
+        <v>716530</v>
       </c>
       <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
+      <c r="H16" s="136">
+        <v>797990</v>
+      </c>
       <c r="I16" s="136"/>
       <c r="J16" s="136"/>
       <c r="K16" s="136"/>
@@ -17965,12 +17973,12 @@
       </c>
       <c r="F17" s="141">
         <f>F16-F15</f>
-        <v>37090</v>
+        <v>100550</v>
       </c>
       <c r="G17" s="132"/>
       <c r="H17" s="141">
         <f>H16-H15</f>
-        <v>0</v>
+        <v>81460</v>
       </c>
       <c r="I17" s="132"/>
       <c r="J17" s="137"/>
@@ -17983,10 +17991,12 @@
         <v>1075</v>
       </c>
       <c r="F18" s="142">
-        <v>43.98</v>
+        <v>48.92</v>
       </c>
       <c r="G18" s="143"/>
-      <c r="H18" s="133"/>
+      <c r="H18" s="133">
+        <v>51.2</v>
+      </c>
       <c r="I18" s="133"/>
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
@@ -17998,10 +18008,12 @@
         <v>1076</v>
       </c>
       <c r="F19" s="144">
-        <v>46.26</v>
+        <v>51.2</v>
       </c>
       <c r="G19" s="145"/>
-      <c r="H19" s="134"/>
+      <c r="H19" s="134">
+        <v>55.06</v>
+      </c>
       <c r="I19" s="134"/>
       <c r="J19" s="136"/>
       <c r="K19" s="136"/>
@@ -18019,7 +18031,7 @@
       <c r="G20" s="147"/>
       <c r="H20" s="146">
         <f>H19-H18</f>
-        <v>0</v>
+        <v>3.8599999999999994</v>
       </c>
       <c r="I20" s="147"/>
       <c r="J20" s="137"/>
